--- a/doc/04_DB定義書_C-2.xlsx
+++ b/doc/04_DB定義書_C-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B65414-988E-4B48-AE47-DD7F2E902721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2938C51-E217-465E-AAE4-5156362303BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="992" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="145">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -562,10 +562,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アウター、ジャケット、トップス、ズボン、スカート、シューズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>晴れ、曇り、雨、雪</t>
     <rPh sb="0" eb="1">
       <t>ハ</t>
@@ -850,6 +846,14 @@
   </si>
   <si>
     <t>コーディネーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アウター、ジャケット、トップス、パンツ、スカート、シューズ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1324,8 +1328,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1347,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1401,9 +1405,11 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1414,9 +1420,11 @@
         <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>143</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1427,9 +1435,11 @@
         <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>143</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1440,9 +1450,11 @@
         <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1453,9 +1465,11 @@
         <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1466,9 +1480,11 @@
         <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="E13" t="s">
+        <v>143</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1481,7 +1497,9 @@
       <c r="D14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1492,9 +1510,11 @@
         <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1505,9 +1525,11 @@
         <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
@@ -1520,7 +1542,9 @@
       <c r="D17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" t="s">
+        <v>143</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
@@ -1723,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F657145-7124-456D-A216-99E456C41858}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1786,7 +1810,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1839,7 +1863,7 @@
         <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>78</v>
@@ -1867,7 +1891,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>76</v>
@@ -1882,7 +1906,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2342,7 +2366,7 @@
         <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>78</v>
@@ -2367,10 +2391,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>76</v>
@@ -2385,7 +2409,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2987,7 +3011,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3047,16 +3071,16 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id varchar (12),</v>
       </c>
     </row>
@@ -3068,7 +3092,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>77</v>
@@ -3079,12 +3103,12 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>name varchar (20),</v>
       </c>
     </row>
@@ -3096,7 +3120,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>76</v>
@@ -3107,12 +3131,12 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>password varchar (20)</v>
       </c>
     </row>
@@ -3130,7 +3154,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3148,7 +3172,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3166,7 +3190,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3184,7 +3208,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3202,7 +3226,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3220,7 +3244,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3238,7 +3262,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3256,7 +3280,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3274,7 +3298,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3292,7 +3316,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3310,7 +3334,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3328,7 +3352,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3346,7 +3370,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3364,7 +3388,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3382,7 +3406,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3400,7 +3424,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3418,7 +3442,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3494,7 +3518,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3552,18 +3576,18 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
       </c>
     </row>
@@ -3575,7 +3599,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>76</v>
@@ -3586,12 +3610,12 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>user_id varchar (20),</v>
       </c>
     </row>
@@ -3612,12 +3636,12 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>parts_code int ,</v>
       </c>
     </row>
@@ -3629,7 +3653,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -3638,14 +3662,14 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>pattern int ,</v>
       </c>
     </row>
@@ -3657,7 +3681,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>78</v>
@@ -3666,14 +3690,14 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>rain int ,</v>
       </c>
     </row>
@@ -3685,7 +3709,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>78</v>
@@ -3694,14 +3718,14 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>wind int ,</v>
       </c>
     </row>
@@ -3713,7 +3737,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>33</v>
@@ -3724,12 +3748,12 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>photo verchar (100)</v>
       </c>
     </row>
@@ -3747,7 +3771,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3765,7 +3789,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3783,7 +3807,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3801,7 +3825,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3819,7 +3843,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3837,7 +3861,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3855,7 +3879,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3873,7 +3897,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3891,7 +3915,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3909,7 +3933,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3927,7 +3951,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3945,7 +3969,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3963,7 +3987,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4039,7 +4063,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4087,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>48</v>
@@ -4097,10 +4121,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4127,7 +4151,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4144,7 +4168,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>76</v>
@@ -4155,7 +4179,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4172,7 +4196,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>77</v>
@@ -4198,7 +4222,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>76</v>
@@ -4211,10 +4235,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L14:L19" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>photo varchar (100),</v>
       </c>
     </row>
@@ -4235,12 +4259,12 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>weather_code int ,</v>
       </c>
     </row>
@@ -4252,7 +4276,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>80</v>
@@ -4261,12 +4285,12 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>max temperature double ,</v>
       </c>
     </row>
@@ -4278,7 +4302,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>80</v>
@@ -4287,12 +4311,12 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>min temperature double ,</v>
       </c>
     </row>
@@ -4304,7 +4328,7 @@
         <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>80</v>
@@ -4313,12 +4337,12 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>wind speed double ,</v>
       </c>
     </row>
@@ -4330,7 +4354,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>80</v>
@@ -4339,12 +4363,12 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">amount of rain double </v>
       </c>
     </row>
@@ -4600,7 +4624,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4651,7 +4675,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>78</v>
@@ -4675,7 +4699,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>78</v>
@@ -4699,7 +4723,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>78</v>
@@ -4723,7 +4747,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -4747,7 +4771,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>78</v>
@@ -4771,7 +4795,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>78</v>
@@ -4804,7 +4828,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -4821,7 +4845,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>77</v>
@@ -4832,7 +4856,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -4846,7 +4870,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>48</v>
@@ -4856,13 +4880,13 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -5141,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5192,18 +5216,18 @@
         <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5217,10 +5241,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>76</v>
@@ -5231,7 +5255,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5248,7 +5272,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>78</v>
@@ -5257,7 +5281,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="8">
@@ -5273,10 +5297,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -5285,7 +5309,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="8">
@@ -5304,7 +5328,7 @@
         <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>78</v>
@@ -5313,7 +5337,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
@@ -5332,7 +5356,7 @@
         <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>78</v>
@@ -5341,7 +5365,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
@@ -5676,7 +5700,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5734,13 +5758,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5766,7 +5790,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5783,7 +5807,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>78</v>
@@ -5792,7 +5816,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5809,7 +5833,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -5818,11 +5842,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -6248,7 +6272,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>78</v>
@@ -6273,10 +6297,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>76</v>
@@ -6700,7 +6724,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6809,7 +6833,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>78</v>
@@ -6835,7 +6859,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -6848,7 +6872,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>

--- a/doc/04_DB定義書_C-2.xlsx
+++ b/doc/04_DB定義書_C-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2938C51-E217-465E-AAE4-5156362303BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF75769-2F44-4131-A1DD-A8AC9016422A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="992" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="992" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="146">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -854,6 +854,16 @@
   </si>
   <si>
     <t>アウター、ジャケット、トップス、パンツ、スカート、シューズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9月は秋</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1747,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F657145-7124-456D-A216-99E456C41858}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -5643,8 +5653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21207A6-4950-459F-8B9F-4E87DEFB3E13}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5819,7 +5829,9 @@
         <v>96</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
         <v>code int ,</v>

--- a/doc/04_DB定義書_C-2.xlsx
+++ b/doc/04_DB定義書_C-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2938C51-E217-465E-AAE4-5156362303BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F866076-B644-46B1-8A03-F771D5831C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="992" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="992" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="色マスター" sheetId="8" r:id="rId8"/>
     <sheet name="アイテム_色設定マスター" sheetId="14" r:id="rId9"/>
     <sheet name="パーツマスター" sheetId="9" r:id="rId10"/>
-    <sheet name="天気マスター" sheetId="15" r:id="rId11"/>
-    <sheet name="Sheet9" sheetId="11" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId11"/>
+    <sheet name="天気マスター" sheetId="15" r:id="rId12"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="146">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -503,14 +504,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1～12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1～12 開始日　→2022/開始月/開始日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>color</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -854,6 +847,39 @@
   </si>
   <si>
     <t>アウター、ジャケット、トップス、パンツ、スカート、シューズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冬は2レコードに分割</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>春１，夏２，秋３，冬４</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>季節ID</t>
+    <rPh sb="0" eb="2">
+      <t>キセツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1328,8 +1354,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1351,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1405,10 +1431,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1420,10 +1446,10 @@
         <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1435,10 +1461,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1450,10 +1476,10 @@
         <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" t="s">
         <v>141</v>
-      </c>
-      <c r="E11" t="s">
-        <v>143</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1465,10 +1491,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1480,10 +1506,10 @@
         <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1495,10 +1521,10 @@
         <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1510,10 +1536,10 @@
         <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1525,10 +1551,10 @@
         <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -1540,10 +1566,10 @@
         <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -1747,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F657145-7124-456D-A216-99E456C41858}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1810,7 +1836,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1863,18 +1889,18 @@
         <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1891,7 +1917,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>76</v>
@@ -1902,11 +1928,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2247,11 +2273,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC65091D-E1C3-4BCF-963A-F3656A799584}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F28F21A-067D-44BA-841D-0E0AB444933C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2313,7 +2352,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2366,18 +2405,18 @@
         <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2391,10 +2430,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>76</v>
@@ -2405,11 +2444,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2751,7 +2790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC14064-3134-457A-846C-00E1D4054CFD}">
   <dimension ref="B2:J19"/>
   <sheetViews>
@@ -2955,7 +2994,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3011,7 +3050,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3071,11 +3110,11 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3092,7 +3131,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>77</v>
@@ -3103,7 +3142,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3120,7 +3159,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>76</v>
@@ -3131,7 +3170,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3518,7 +3557,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3576,13 +3615,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3599,7 +3638,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>76</v>
@@ -3610,7 +3649,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3627,7 +3666,7 @@
         <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>78</v>
@@ -3636,7 +3675,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3653,7 +3692,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -3662,11 +3701,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -3681,7 +3720,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>78</v>
@@ -3690,11 +3729,11 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -3709,7 +3748,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>78</v>
@@ -3718,11 +3757,11 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -3737,7 +3776,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>33</v>
@@ -3748,7 +3787,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -4063,7 +4102,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4111,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>48</v>
@@ -4121,10 +4160,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4151,7 +4190,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4168,7 +4207,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>76</v>
@@ -4179,7 +4218,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4196,7 +4235,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>77</v>
@@ -4222,7 +4261,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>76</v>
@@ -4235,7 +4274,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ref="L14:L19" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4250,7 +4289,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>78</v>
@@ -4259,7 +4298,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -4276,7 +4315,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>80</v>
@@ -4285,7 +4324,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -4302,7 +4341,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>80</v>
@@ -4311,7 +4350,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -4328,7 +4367,7 @@
         <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>80</v>
@@ -4337,7 +4376,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -4354,7 +4393,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>80</v>
@@ -4363,7 +4402,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -4624,7 +4663,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4675,7 +4714,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>78</v>
@@ -4699,7 +4738,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>78</v>
@@ -4723,7 +4762,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>78</v>
@@ -4747,7 +4786,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -4771,7 +4810,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>78</v>
@@ -4795,7 +4834,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>78</v>
@@ -4828,7 +4867,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -4845,7 +4884,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>77</v>
@@ -4856,7 +4895,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -4870,7 +4909,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>48</v>
@@ -4880,13 +4919,13 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -5108,8 +5147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6BF4A9-3719-4A7B-BFDE-B06AE8BB3BB1}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5165,7 +5204,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5213,27 +5252,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>code int ,</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -5241,27 +5280,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>name varchar (10),</v>
+        <v>code int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -5269,27 +5308,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="8">
-        <v>25</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>upperlimit_temperature int ,</v>
+        <v>name varchar (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -5297,10 +5336,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -5309,15 +5348,13 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="8">
-        <v>20</v>
-      </c>
+      <c r="J13" s="8"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>lowerlimit_temperature int ,</v>
+        <v>upperlimit_temperature int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -5325,10 +5362,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>78</v>
@@ -5337,15 +5374,13 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="J14" s="8"/>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>start_month int ,</v>
+        <v>lowerlimit_temperature int ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -5353,10 +5388,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>78</v>
@@ -5365,33 +5400,41 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">end_month int </v>
+        <v>start_month int ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">end_month int </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -5700,7 +5743,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5758,13 +5801,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5781,7 +5824,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>78</v>
@@ -5790,7 +5833,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5807,7 +5850,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>78</v>
@@ -5816,7 +5859,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5833,7 +5876,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -5842,11 +5885,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -6156,8 +6199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D52A55E-3579-42E7-B221-A04A7FA9E9AE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6219,7 +6262,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6272,18 +6315,18 @@
         <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6297,10 +6340,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>76</v>
@@ -6311,11 +6354,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6724,7 +6767,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6784,13 +6827,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6807,7 +6850,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>78</v>
@@ -6816,7 +6859,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -6833,7 +6876,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>78</v>
@@ -6842,7 +6885,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -6859,7 +6902,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -6868,11 +6911,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>

--- a/doc/04_DB定義書_C-2.xlsx
+++ b/doc/04_DB定義書_C-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F866076-B644-46B1-8A03-F771D5831C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0FD6F6-A35B-46F8-A1CC-AB769C447EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="992" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="992" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -792,10 +792,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>check</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>item_color</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -880,6 +876,10 @@
     <rPh sb="0" eb="2">
       <t>キセツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flag</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1434,7 +1434,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1449,7 +1449,7 @@
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1464,7 +1464,7 @@
         <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1476,10 +1476,10 @@
         <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1494,7 +1494,7 @@
         <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1509,7 +1509,7 @@
         <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1524,7 +1524,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1536,10 +1536,10 @@
         <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1551,10 +1551,10 @@
         <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -1569,7 +1569,7 @@
         <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -1836,7 +1836,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>96</v>
@@ -4606,7 +4606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DC6B6A-6927-4BCC-82A2-12F904622E47}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4663,7 +4663,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5147,7 +5147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6BF4A9-3719-4A7B-BFDE-B06AE8BB3BB1}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -5252,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>48</v>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
@@ -5308,7 +5308,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>96</v>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -5687,7 +5687,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5876,7 +5876,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">check int </v>
+        <v xml:space="preserve">flag int </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -6340,7 +6340,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>96</v>
@@ -6705,7 +6705,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6767,7 +6767,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6902,7 +6902,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>78</v>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">check int </v>
+        <v xml:space="preserve">flag int </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">

--- a/doc/04_DB定義書_C-2.xlsx
+++ b/doc/04_DB定義書_C-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0FD6F6-A35B-46F8-A1CC-AB769C447EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9A8BE8-BBE0-4C5C-A3E7-71497990BBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="992" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="992" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="色マスター" sheetId="8" r:id="rId8"/>
     <sheet name="アイテム_色設定マスター" sheetId="14" r:id="rId9"/>
     <sheet name="パーツマスター" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="22" r:id="rId11"/>
-    <sheet name="天気マスター" sheetId="15" r:id="rId12"/>
+    <sheet name="天気マスター" sheetId="15" r:id="rId11"/>
+    <sheet name="天気予報データ" sheetId="23" r:id="rId12"/>
     <sheet name="Sheet9" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="159">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -880,6 +880,79 @@
   </si>
   <si>
     <t>flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気予報データ</t>
+    <rPh sb="0" eb="4">
+      <t>テンキヨホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weather_forecast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>temprerature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>waether_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>season_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気予報ID</t>
+    <rPh sb="0" eb="4">
+      <t>テンキヨホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気温</t>
+    <rPh sb="0" eb="2">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降水量（mm/h）</t>
+    <rPh sb="0" eb="3">
+      <t>コウスイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風速（m/s）</t>
+    <rPh sb="0" eb="2">
+      <t>フウソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2273,24 +2346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC65091D-E1C3-4BCF-963A-F3656A799584}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F28F21A-067D-44BA-841D-0E0AB444933C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2790,11 +2850,570 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60122FB8-7B74-423A-B787-06AB5F1D8757}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table weather_forecast (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>date date ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>hour int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>temprerature double ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>waether_code double ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>rain double ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>wind double ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>season_code int ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">month int </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC14064-3134-457A-846C-00E1D4054CFD}">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -4606,7 +5225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DC6B6A-6927-4BCC-82A2-12F904622E47}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
